--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -593,10 +605,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -640,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -686,28 +698,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1056,10 +1068,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1103,28 +1115,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1149,28 +1161,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1432,10 +1444,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1479,28 +1491,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1525,28 +1537,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1837,10 +1849,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1884,28 +1896,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1930,28 +1942,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2271,10 +2283,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2318,28 +2330,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2364,28 +2376,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2647,10 +2659,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2694,28 +2706,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2740,28 +2752,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3052,10 +3064,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3099,28 +3111,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3145,28 +3157,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3457,10 +3469,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3504,28 +3516,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3550,28 +3562,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3833,10 +3845,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="J128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3880,28 +3892,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3926,28 +3938,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4180,10 +4192,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4227,28 +4239,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4273,28 +4285,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4498,10 +4510,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4545,28 +4557,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4591,28 +4603,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4729,10 +4741,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
+      <c r="J159" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4776,28 +4788,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4822,28 +4834,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4931,10 +4943,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -605,10 +653,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -652,28 +700,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -698,28 +746,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1068,10 +1116,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1115,28 +1163,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="4">
+      <c r="A34" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1161,28 +1209,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="4">
+      <c r="C36" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="4">
+      <c r="D36" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="4">
+      <c r="I36" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1444,10 +1492,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1491,28 +1539,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="4">
+      <c r="A47" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="4">
+      <c r="C47" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D47" t="s" s="4">
+      <c r="D47" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1537,28 +1585,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="4">
+      <c r="D49" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="4">
+      <c r="I49" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1849,10 +1897,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1896,28 +1944,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1942,28 +1990,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="4">
+      <c r="I63" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2283,10 +2331,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2330,28 +2378,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="4">
+      <c r="A76" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="4">
+      <c r="D76" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2376,28 +2424,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="4">
+      <c r="I78" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2659,10 +2707,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J87" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2706,28 +2754,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2752,28 +2800,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="4">
+      <c r="I91" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3064,10 +3112,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="4" t="s">
+      <c r="J101" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="4" t="s">
+      <c r="K101" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3111,28 +3159,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="4">
+      <c r="A103" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="4">
+      <c r="C103" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="4">
+      <c r="D103" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3157,28 +3205,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="4">
+      <c r="C105" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="4">
+      <c r="D105" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="4">
+      <c r="G105" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="4">
+      <c r="H105" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="4">
+      <c r="I105" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3469,10 +3517,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="4" t="s">
+      <c r="J115" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="K115" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3516,28 +3564,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="4">
+      <c r="A117" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="4">
+      <c r="C117" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="4">
+      <c r="D117" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3562,28 +3610,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="4">
+      <c r="D119" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="4">
+      <c r="I119" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3845,10 +3893,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="4" t="s">
+      <c r="J128" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="4" t="s">
+      <c r="K128" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3892,28 +3940,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="4">
+      <c r="A130" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="4">
+      <c r="B130" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="4">
+      <c r="C130" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="4">
+      <c r="D130" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="4">
+      <c r="E130" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="4">
+      <c r="F130" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="4">
+      <c r="G130" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="4">
+      <c r="H130" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3938,28 +3986,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="4">
+      <c r="C132" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="4">
+      <c r="D132" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="4">
+      <c r="I132" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4192,10 +4240,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="4" t="s">
+      <c r="J140" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="4" t="s">
+      <c r="K140" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4239,28 +4287,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="4">
+      <c r="A142" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4285,28 +4333,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="4">
+      <c r="C144" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="4">
+      <c r="D144" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="4">
+      <c r="I144" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4510,10 +4558,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="4" t="s">
+      <c r="J151" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="4" t="s">
+      <c r="K151" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4557,28 +4605,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="4">
+      <c r="A153" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="4">
+      <c r="B153" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="4">
+      <c r="C153" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="4">
+      <c r="D153" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="4">
+      <c r="E153" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="4">
+      <c r="F153" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="4">
+      <c r="G153" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="4">
+      <c r="H153" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4603,28 +4651,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="4">
+      <c r="C155" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="4">
+      <c r="D155" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="4">
+      <c r="I155" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4741,10 +4789,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="4" t="s">
+      <c r="J159" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="4" t="s">
+      <c r="K159" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4788,28 +4836,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="4">
+      <c r="A161" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="4">
+      <c r="C161" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D161" t="s" s="4">
+      <c r="D161" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4834,28 +4882,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="4">
+      <c r="C163" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="4">
+      <c r="D163" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="4">
+      <c r="E163" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="4">
+      <c r="F163" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="4">
+      <c r="G163" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="4">
+      <c r="H163" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="4">
+      <c r="I163" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4943,10 +4991,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="4" t="s">
+      <c r="J166" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="4" t="s">
+      <c r="K166" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -653,10 +671,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -700,28 +718,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -746,28 +764,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1116,10 +1134,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1163,28 +1181,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="12">
+      <c r="A34" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1209,28 +1227,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="12">
+      <c r="C36" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="12">
+      <c r="I36" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1492,10 +1510,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1539,28 +1557,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="12">
+      <c r="A47" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="12">
+      <c r="C47" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D47" t="s" s="12">
+      <c r="D47" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1585,28 +1603,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="12">
+      <c r="C49" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D49" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="12">
+      <c r="I49" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1897,10 +1915,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="12" t="s">
+      <c r="K59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1944,28 +1962,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="A61" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1990,28 +2008,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="12">
+      <c r="I63" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2331,10 +2349,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="12" t="s">
+      <c r="K74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2378,28 +2396,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="12">
+      <c r="A76" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="12">
+      <c r="C76" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="12">
+      <c r="D76" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2424,28 +2442,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="12">
+      <c r="D78" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="12">
+      <c r="I78" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2707,10 +2725,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="12" t="s">
+      <c r="K87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2754,28 +2772,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="12">
+      <c r="A89" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2800,28 +2818,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="12">
+      <c r="I91" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3112,10 +3130,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="12" t="s">
+      <c r="J101" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="12" t="s">
+      <c r="K101" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3159,28 +3177,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="12">
+      <c r="A103" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="12">
+      <c r="C103" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="12">
+      <c r="D103" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3205,28 +3223,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="12">
+      <c r="C105" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="12">
+      <c r="D105" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="12">
+      <c r="F105" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="12">
+      <c r="G105" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="12">
+      <c r="I105" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3517,10 +3535,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="12" t="s">
+      <c r="J115" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="12" t="s">
+      <c r="K115" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3564,28 +3582,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="12">
+      <c r="A117" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="12">
+      <c r="C117" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="12">
+      <c r="D117" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3610,28 +3628,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="12">
+      <c r="C119" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="12">
+      <c r="D119" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="12">
+      <c r="I119" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3893,10 +3911,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="12" t="s">
+      <c r="J128" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="12" t="s">
+      <c r="K128" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3940,28 +3958,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="12">
+      <c r="A130" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="12">
+      <c r="B130" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="12">
+      <c r="C130" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="12">
+      <c r="D130" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="12">
+      <c r="E130" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="12">
+      <c r="F130" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="12">
+      <c r="G130" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="12">
+      <c r="H130" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3986,28 +4004,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="12">
+      <c r="C132" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="12">
+      <c r="D132" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="12">
+      <c r="I132" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4240,10 +4258,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="12" t="s">
+      <c r="J140" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="12" t="s">
+      <c r="K140" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4287,28 +4305,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="12">
+      <c r="A142" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4333,28 +4351,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="12">
+      <c r="C144" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="12">
+      <c r="D144" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="12">
+      <c r="I144" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4558,10 +4576,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="12" t="s">
+      <c r="J151" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="12" t="s">
+      <c r="K151" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4605,28 +4623,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="12">
+      <c r="A153" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="12">
+      <c r="C153" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="12">
+      <c r="D153" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="12">
+      <c r="E153" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="12">
+      <c r="F153" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="12">
+      <c r="G153" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="12">
+      <c r="H153" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4651,28 +4669,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="12">
+      <c r="C155" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="12">
+      <c r="D155" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="12">
+      <c r="I155" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4789,10 +4807,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="12" t="s">
+      <c r="J159" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="12" t="s">
+      <c r="K159" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4836,28 +4854,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="12">
+      <c r="A161" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="12">
+      <c r="C161" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D161" t="s" s="12">
+      <c r="D161" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4882,28 +4900,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="12">
+      <c r="B163" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="12">
+      <c r="C163" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="12">
+      <c r="D163" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="12">
+      <c r="E163" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="12">
+      <c r="F163" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="12">
+      <c r="G163" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="12">
+      <c r="H163" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="12">
+      <c r="I163" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4991,10 +5009,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="12" t="s">
+      <c r="J166" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="12" t="s">
+      <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
